--- a/data/trans_dic/P6904-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6904-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,02%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,73%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>63,16; 80,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>45,33; 70,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>42,7; 68,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>56,83; 90,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>39,99; 72,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>35,29; 67,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>39,17; 80,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>55,59; 91,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>60,34; 75,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>44,46; 65,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>44,5; 68,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>62,64; 85,97</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,23%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,18%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>43,76; 55,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>49,16; 63,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>56,1; 70,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>55,6; 68,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>49,69; 67,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>49,54; 67,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>66,57; 80,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>59,41; 72,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>47,34; 57,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>51,74; 62,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>62,65; 72,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>59,33; 68,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,73%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,64%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>20,46; 42,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>26,44; 56,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>35,49; 61,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>39,77; 65,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>23,97; 49,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>17,05; 46,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>44,53; 67,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>41,17; 60,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>25,43; 42,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>26,77; 48,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>43,09; 61,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>44,46; 60,42</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,49%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,38%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,15%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>47,51; 57,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>48,65; 60,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>53,7; 64,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>55,86; 67,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>44,66; 58,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>44,7; 58,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>60,78; 73,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>57,36; 67,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>48,48; 56,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>48,92; 58,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>58,07; 66,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>58,18; 65,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6904-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>76,04%</t>
+          <t>76,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>75,4%</t>
+          <t>74,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>75,73%</t>
+          <t>75,83%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,83; 90,2</t>
+          <t>57,23; 90,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 91,88</t>
+          <t>55,71; 90,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>62,64; 85,97</t>
+          <t>63,11; 85,64</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62,42%</t>
+          <t>62,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>69,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>64,18%</t>
+          <t>65,88%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,6; 68,46</t>
+          <t>54,95; 68,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,41; 72,43</t>
+          <t>62,09; 80,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,33; 68,63</t>
+          <t>61,05; 73,27</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>52,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,11%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>51,64%</t>
+          <t>51,73%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,77; 65,37</t>
+          <t>40,04; 65,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,17; 60,24</t>
+          <t>41,03; 60,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>44,46; 60,42</t>
+          <t>44,46; 60,3</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>61,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,74%</t>
+          <t>65,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>63,38%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,86; 67,07</t>
+          <t>55,77; 67,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>57,36; 67,69</t>
+          <t>59,66; 74,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>58,18; 65,72</t>
+          <t>59,39; 69,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6904-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,16; 80,79</t>
+          <t>63,4; 80,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,33; 70,25</t>
+          <t>47,02; 72,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,7; 68,79</t>
+          <t>42,14; 68,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,23; 90,01</t>
+          <t>58,6; 90,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,99; 72,21</t>
+          <t>38,84; 72,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,29; 67,45</t>
+          <t>36,28; 68,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,17; 80,24</t>
+          <t>38,92; 82,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,71; 90,6</t>
+          <t>55,43; 90,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>60,34; 75,91</t>
+          <t>59,88; 75,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,46; 65,54</t>
+          <t>45,56; 65,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>44,5; 68,84</t>
+          <t>44,84; 69,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>63,11; 85,64</t>
+          <t>62,87; 86,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,76; 55,48</t>
+          <t>44,16; 56,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,16; 63,01</t>
+          <t>49,41; 62,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,1; 70,24</t>
+          <t>56,75; 70,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,95; 68,1</t>
+          <t>55,24; 68,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,69; 67,03</t>
+          <t>49,47; 68,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,54; 67,86</t>
+          <t>49,62; 66,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,57; 80,69</t>
+          <t>65,74; 80,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,09; 80,51</t>
+          <t>62,61; 82,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,34; 57,73</t>
+          <t>47,86; 57,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,74; 62,8</t>
+          <t>51,77; 63,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>62,65; 72,28</t>
+          <t>62,41; 72,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>61,05; 73,27</t>
+          <t>60,95; 73,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,46; 42,3</t>
+          <t>20,81; 43,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,44; 56,18</t>
+          <t>26,68; 56,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,49; 61,9</t>
+          <t>35,73; 62,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,04; 65,78</t>
+          <t>40,07; 66,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,97; 49,48</t>
+          <t>24,58; 49,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 46,64</t>
+          <t>18,47; 48,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,53; 67,64</t>
+          <t>43,99; 67,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,03; 60,07</t>
+          <t>40,18; 60,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,43; 42,0</t>
+          <t>26,14; 42,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,77; 48,19</t>
+          <t>25,99; 46,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43,09; 61,34</t>
+          <t>43,58; 61,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>44,46; 60,3</t>
+          <t>44,02; 58,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,51; 57,21</t>
+          <t>47,36; 56,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,65; 60,73</t>
+          <t>49,1; 60,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,7; 64,81</t>
+          <t>53,86; 64,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,77; 67,13</t>
+          <t>55,25; 66,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,66; 58,32</t>
+          <t>45,5; 59,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,7; 58,16</t>
+          <t>44,37; 58,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,78; 73,25</t>
+          <t>60,83; 73,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,66; 74,87</t>
+          <t>59,42; 74,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,48; 56,12</t>
+          <t>48,19; 55,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>48,92; 58,18</t>
+          <t>49,11; 57,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58,07; 66,68</t>
+          <t>57,68; 66,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,39; 69,18</t>
+          <t>59,2; 69,48</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores musculares</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>80803</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34038</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30813</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22376</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21099</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19818</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11155</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18724</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>101903</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>53855</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41968</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>41099</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>70558; 89969</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27133; 41580</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23422; 38282</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17119; 26498</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14592; 27232</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13764; 26093</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7016; 14904</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13848; 22700</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>89138; 112833</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>43575; 62907</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33005; 51312</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>34074; 46684</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>143347</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>124665</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>145407</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>148652</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>69430</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>76464</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>92551</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>166222</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>212777</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>201130</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>237958</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>314874</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>126718; 161042</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>109053; 138929</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>130172; 160683</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>132341; 164322</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>58656; 81089</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>64768; 87285</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>81892; 100846</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>149239; 196259</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>194089; 233513</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>181839; 221808</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>220911; 257563</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>291300; 349489</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22584</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18779</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30710</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36561</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23387</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14102</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41655</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46314</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>45971</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32881</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>72365</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>82876</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15418; 32121</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12296; 25887</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22699; 39491</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27859; 46080</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15728; 31396</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8347; 22102</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32424; 50041</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36440; 54864</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36083; 58697</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23726; 42757</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>59805; 84431</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>70527; 94280</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>246734</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>177483</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>206930</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>207589</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>113916</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>110383</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>145362</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>231260</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>360650</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>287866</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>352291</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>438849</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>223693; 268198</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>159330; 196140</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>187710; 226036</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>186934; 225889</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100160; 129872</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>94801; 124703</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>131567; 159313</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>210361; 263187</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>333659; 386773</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>264294; 310550</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>325792; 374931</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>409856; 481090</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>